--- a/genius-stringreplace/property/genius-stringreplace-template.xlsx
+++ b/genius-stringreplace/property/genius-stringreplace-template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TemplateDirectoryPath</t>
   </si>
@@ -33,11 +33,46 @@
     <t>TemplateID</t>
   </si>
   <si>
-    <t>사용법 : http://genius.megatus.com/redmine/projects/stringreplace/wiki</t>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>itHub</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>011. 엑셀기반의 문자열 치환' 엑셀 탬플릿 파일입니다.</t>
+    <t>https://github.com/yalsooni/Genius.git</t>
+  </si>
+  <si>
+    <t>http://yalsooni.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ite</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genius Project. G10 StringReplace</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -124,13 +159,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +235,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,28 +1436,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>5</v>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9" t="s">
+        <v>8</v>
       </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1363,13 +1501,13 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1397,7 +1535,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1421,5 +1559,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>